--- a/Code/Results/Cases/Case_1_237/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_237/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9823472830894673</v>
+        <v>0.9353491011476933</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.06542539313904427</v>
+        <v>0.02470569264311706</v>
       </c>
       <c r="E2">
-        <v>0.1573060852520811</v>
+        <v>0.3764878169001253</v>
       </c>
       <c r="F2">
-        <v>0.3779150702442635</v>
+        <v>0.5320487359019879</v>
       </c>
       <c r="G2">
-        <v>0.2710823531236173</v>
+        <v>0.3731684582329748</v>
       </c>
       <c r="H2">
-        <v>0.233390780572087</v>
+        <v>0.5359209923621577</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.194980040629474</v>
+        <v>0.3990874383953837</v>
       </c>
       <c r="L2">
-        <v>0.2760013013787841</v>
+        <v>0.120836204172349</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8376676134168335</v>
+        <v>1.634832354216272</v>
       </c>
       <c r="O2">
-        <v>1.013130906839365</v>
+        <v>1.758896973849332</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8734606925065123</v>
+        <v>0.9094003381312916</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05781398502421098</v>
+        <v>0.02219258204841168</v>
       </c>
       <c r="E3">
-        <v>0.1605506356372768</v>
+        <v>0.3798043307007166</v>
       </c>
       <c r="F3">
-        <v>0.3523935550446708</v>
+        <v>0.5293819867776861</v>
       </c>
       <c r="G3">
-        <v>0.2543228341425348</v>
+        <v>0.3719481265385625</v>
       </c>
       <c r="H3">
-        <v>0.2302923626912303</v>
+        <v>0.5384930335440714</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.061709677473715</v>
+        <v>0.3556188903764053</v>
       </c>
       <c r="L3">
-        <v>0.2397461237839309</v>
+        <v>0.1105801642356283</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8743379794777191</v>
+        <v>1.650987400577201</v>
       </c>
       <c r="O3">
-        <v>0.9708062263424893</v>
+        <v>1.76146428061783</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8072713528067652</v>
+        <v>0.8938917477824759</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05312802012258544</v>
+        <v>0.02063884706763019</v>
       </c>
       <c r="E4">
-        <v>0.162801774391756</v>
+        <v>0.3820020767812533</v>
       </c>
       <c r="F4">
-        <v>0.3373628966927811</v>
+        <v>0.5280712361764301</v>
       </c>
       <c r="G4">
-        <v>0.2445923243433228</v>
+        <v>0.3714576501076721</v>
       </c>
       <c r="H4">
-        <v>0.228760723770371</v>
+        <v>0.5403000602223784</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9796633118409943</v>
+        <v>0.32876758247005</v>
       </c>
       <c r="L4">
-        <v>0.2175806705560035</v>
+        <v>0.1043193871062016</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8979042829244168</v>
+        <v>1.661451150759669</v>
       </c>
       <c r="O4">
-        <v>0.9467736569235399</v>
+        <v>1.764057927020474</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7804542546077755</v>
+        <v>0.887679092868467</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.051214984122673</v>
+        <v>0.02000303558871508</v>
       </c>
       <c r="E5">
-        <v>0.1637827360916493</v>
+        <v>0.3829382973892432</v>
       </c>
       <c r="F5">
-        <v>0.3313902947060754</v>
+        <v>0.5276192975582177</v>
       </c>
       <c r="G5">
-        <v>0.2407602677926803</v>
+        <v>0.3713228427028952</v>
       </c>
       <c r="H5">
-        <v>0.2282264838858765</v>
+        <v>0.5410937801045179</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9461682616966414</v>
+        <v>0.3177855593612406</v>
       </c>
       <c r="L5">
-        <v>0.2085683589979226</v>
+        <v>0.1017773643608848</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9077663689824611</v>
+        <v>1.665852188541139</v>
       </c>
       <c r="O5">
-        <v>0.9374487189985814</v>
+        <v>1.765370766779483</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7760103461292545</v>
+        <v>0.886653979508651</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.05089710756523402</v>
+        <v>0.01989730036356718</v>
       </c>
       <c r="E6">
-        <v>0.1639494223168008</v>
+        <v>0.3830962106363387</v>
       </c>
       <c r="F6">
-        <v>0.330407523065098</v>
+        <v>0.527549220270437</v>
       </c>
       <c r="G6">
-        <v>0.2401317872313484</v>
+        <v>0.3713043874124509</v>
       </c>
       <c r="H6">
-        <v>0.228143109895548</v>
+        <v>0.5412290418746792</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9406026205899991</v>
+        <v>0.3159596136803913</v>
       </c>
       <c r="L6">
-        <v>0.2070729924524386</v>
+        <v>0.1013558284303571</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9094194235633442</v>
+        <v>1.666591252217977</v>
       </c>
       <c r="O6">
-        <v>0.9359279624741532</v>
+        <v>1.765604221876018</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8069090738221121</v>
+        <v>0.893807526828283</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05310223469699338</v>
+        <v>0.0206302829863958</v>
       </c>
       <c r="E7">
-        <v>0.1628147484138083</v>
+        <v>0.382014538455504</v>
       </c>
       <c r="F7">
-        <v>0.337281741332859</v>
+        <v>0.528064808251159</v>
       </c>
       <c r="G7">
-        <v>0.2445401143389532</v>
+        <v>0.3714555686188703</v>
       </c>
       <c r="H7">
-        <v>0.228753159050342</v>
+        <v>0.5403105323468083</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9792118381008947</v>
+        <v>0.3286196356812923</v>
       </c>
       <c r="L7">
-        <v>0.2174590499676725</v>
+        <v>0.1042850667005695</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8980362464473508</v>
+        <v>1.661509950009377</v>
       </c>
       <c r="O7">
-        <v>0.9466460302526798</v>
+        <v>1.764074596147751</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.944657079243342</v>
+        <v>0.9263142987080357</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.06280338302131128</v>
+        <v>0.02384140648194943</v>
       </c>
       <c r="E8">
-        <v>0.1583701268982196</v>
+        <v>0.377597876385126</v>
       </c>
       <c r="F8">
-        <v>0.3689773603542505</v>
+        <v>0.5310614829185667</v>
       </c>
       <c r="G8">
-        <v>0.2651827922460939</v>
+        <v>0.3726939611065205</v>
       </c>
       <c r="H8">
-        <v>0.2322434383458614</v>
+        <v>0.536760593713943</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.14907003828813</v>
+        <v>0.3841333976056944</v>
       </c>
       <c r="L8">
-        <v>0.2634784353043358</v>
+        <v>0.1172924225106584</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8500901125220768</v>
+        <v>1.640289642737628</v>
       </c>
       <c r="O8">
-        <v>0.9981174083699074</v>
+        <v>1.759571092704419</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.220669348347968</v>
+        <v>0.9934028348092454</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.08174372877716962</v>
+        <v>0.03005255372126925</v>
       </c>
       <c r="E9">
-        <v>0.1517800886816616</v>
+        <v>0.3702157228014258</v>
       </c>
       <c r="F9">
-        <v>0.4366038148323597</v>
+        <v>0.5395279157590522</v>
       </c>
       <c r="G9">
-        <v>0.3104656224750926</v>
+        <v>0.3771774047130521</v>
       </c>
       <c r="H9">
-        <v>0.2421877624699391</v>
+        <v>0.5316039469785352</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.480724683997693</v>
+        <v>0.4916888422650061</v>
       </c>
       <c r="L9">
-        <v>0.3546583635698397</v>
+        <v>0.1430850901701319</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7646619337093448</v>
+        <v>1.602993787077679</v>
       </c>
       <c r="O9">
-        <v>1.115658455826662</v>
+        <v>1.758809453234903</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.427930050187882</v>
+        <v>1.044707327267048</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.09563253566734886</v>
+        <v>0.03456238738617401</v>
       </c>
       <c r="E10">
-        <v>0.1483371083278158</v>
+        <v>0.3655694244574512</v>
       </c>
       <c r="F10">
-        <v>0.4902057678904725</v>
+        <v>0.547326260296785</v>
       </c>
       <c r="G10">
-        <v>0.3471904337525871</v>
+        <v>0.3817271525695247</v>
       </c>
       <c r="H10">
-        <v>0.2516147925641974</v>
+        <v>0.5289124567204198</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.723971037816028</v>
+        <v>0.5698854342697359</v>
       </c>
       <c r="L10">
-        <v>0.422487417498715</v>
+        <v>0.1622052788071784</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7075090180297963</v>
+        <v>1.578219280560994</v>
       </c>
       <c r="O10">
-        <v>1.213742841808795</v>
+        <v>1.763169548732321</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.523398194256686</v>
+        <v>1.068479906441723</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1019508320016058</v>
+        <v>0.03660218636001389</v>
       </c>
       <c r="E11">
-        <v>0.1470983914059687</v>
+        <v>0.3636240204632024</v>
       </c>
       <c r="F11">
-        <v>0.515577378742023</v>
+        <v>0.5512164966591513</v>
       </c>
       <c r="G11">
-        <v>0.364771642013423</v>
+        <v>0.3840703282563425</v>
       </c>
       <c r="H11">
-        <v>0.2564182319377011</v>
+        <v>0.5279256145779101</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.834648850973309</v>
+        <v>0.605274619536317</v>
       </c>
       <c r="L11">
-        <v>0.4535903111851809</v>
+        <v>0.1709398732498499</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6828139735563603</v>
+        <v>1.56751802790691</v>
       </c>
       <c r="O11">
-        <v>1.261286728501716</v>
+        <v>1.76622155595868</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.559737785731159</v>
+        <v>1.077543838690104</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1043439073424395</v>
+        <v>0.03737288712032694</v>
       </c>
       <c r="E12">
-        <v>0.1466785231429419</v>
+        <v>0.3629115003452164</v>
       </c>
       <c r="F12">
-        <v>0.5253389446704091</v>
+        <v>0.55273886948887</v>
       </c>
       <c r="G12">
-        <v>0.3715659094431061</v>
+        <v>0.3849969866631966</v>
       </c>
       <c r="H12">
-        <v>0.2583160316544877</v>
+        <v>0.5275860229429981</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.87657243608524</v>
+        <v>0.6186486662097934</v>
       </c>
       <c r="L12">
-        <v>0.4654092023813376</v>
+        <v>0.174252616442601</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6736579433386396</v>
+        <v>1.56354748253607</v>
       </c>
       <c r="O12">
-        <v>1.279744143400137</v>
+        <v>1.76753089037885</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.551902756966967</v>
+        <v>1.075589021291904</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1038284873469308</v>
+        <v>0.03720698032449832</v>
       </c>
       <c r="E13">
-        <v>0.1467667259507444</v>
+        <v>0.3630638801241624</v>
       </c>
       <c r="F13">
-        <v>0.5232295764418211</v>
+        <v>0.5524088109382745</v>
       </c>
       <c r="G13">
-        <v>0.3700963854314381</v>
+        <v>0.3847956637909817</v>
       </c>
       <c r="H13">
-        <v>0.2579037207640198</v>
+        <v>0.527657644126009</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.867542746394946</v>
+        <v>0.6157695422862446</v>
       </c>
       <c r="L13">
-        <v>0.4628618844995032</v>
+        <v>0.1735389314612092</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6756210347715523</v>
+        <v>1.564398973092576</v>
       </c>
       <c r="O13">
-        <v>1.275748288900417</v>
+        <v>1.767242071033991</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.52638400437931</v>
+        <v>1.069224367162832</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1021476996254762</v>
+        <v>0.03666562720027144</v>
       </c>
       <c r="E14">
-        <v>0.1470628499099611</v>
+        <v>0.3635649169172446</v>
       </c>
       <c r="F14">
-        <v>0.5163773141541839</v>
+        <v>0.5513407569961402</v>
       </c>
       <c r="G14">
-        <v>0.365327807487688</v>
+        <v>0.3841457762649867</v>
       </c>
       <c r="H14">
-        <v>0.2565727565324494</v>
+        <v>0.5278969929737656</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.838097629830088</v>
+        <v>0.6063754573790163</v>
       </c>
       <c r="L14">
-        <v>0.4545618068078312</v>
+        <v>0.171212312374891</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6820567374178133</v>
+        <v>1.567189729642013</v>
       </c>
       <c r="O14">
-        <v>1.262795944596604</v>
+        <v>1.766326197527775</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.510778039164649</v>
+        <v>1.065333858820168</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1011182438986324</v>
+        <v>0.03633380677396758</v>
       </c>
       <c r="E15">
-        <v>0.1472507071904516</v>
+        <v>0.3638749622239175</v>
       </c>
       <c r="F15">
-        <v>0.5122005098739848</v>
+        <v>0.5506929518452353</v>
       </c>
       <c r="G15">
-        <v>0.3624250439040964</v>
+        <v>0.3837528264242707</v>
       </c>
       <c r="H15">
-        <v>0.2557679168807567</v>
+        <v>0.5280480408532924</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.820063522269436</v>
+        <v>0.6006177607566201</v>
       </c>
       <c r="L15">
-        <v>0.4494832611217134</v>
+        <v>0.1697878564842341</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.686024486836871</v>
+        <v>1.568909799548859</v>
       </c>
       <c r="O15">
-        <v>1.254922342415512</v>
+        <v>1.765785200868635</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.421716291083243</v>
+        <v>1.043162411419758</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.09521966168847484</v>
+        <v>0.03442884213365716</v>
       </c>
       <c r="E16">
-        <v>0.1484248296610922</v>
+        <v>0.3656999438357929</v>
       </c>
       <c r="F16">
-        <v>0.4885685470511163</v>
+        <v>0.5470789157595704</v>
       </c>
       <c r="G16">
-        <v>0.3460599771563295</v>
+        <v>0.3815795255385552</v>
       </c>
       <c r="H16">
-        <v>0.2513116423295116</v>
+        <v>0.5289817244034367</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.716739205221273</v>
+        <v>0.5675689221291975</v>
       </c>
       <c r="L16">
-        <v>0.4204601937362611</v>
+        <v>0.1616351796360789</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7091498058990773</v>
+        <v>1.578930077688334</v>
       </c>
       <c r="O16">
-        <v>1.210697366588391</v>
+        <v>1.762991590782462</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.367395279200935</v>
+        <v>1.02967163793025</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.09160143370873897</v>
+        <v>0.03325717261780881</v>
       </c>
       <c r="E17">
-        <v>0.1492304661652923</v>
+        <v>0.3668625764690816</v>
       </c>
       <c r="F17">
-        <v>0.4743323121066609</v>
+        <v>0.5449495612508528</v>
       </c>
       <c r="G17">
-        <v>0.3362521286935589</v>
+        <v>0.3803163358790584</v>
       </c>
       <c r="H17">
-        <v>0.2487130854158011</v>
+        <v>0.529615308859789</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.653365290850644</v>
+        <v>0.547247147566992</v>
       </c>
       <c r="L17">
-        <v>0.4027224851522533</v>
+        <v>0.156643083753977</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7236759466910172</v>
+        <v>1.58522287121211</v>
       </c>
       <c r="O17">
-        <v>1.184338741873773</v>
+        <v>1.761551451768014</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.336261618316598</v>
+        <v>1.021952980644954</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.08952031624706791</v>
+        <v>0.03258215588166991</v>
       </c>
       <c r="E18">
-        <v>0.149724541029677</v>
+        <v>0.3675471273669899</v>
       </c>
       <c r="F18">
-        <v>0.4662362345216948</v>
+        <v>0.5437570758933958</v>
       </c>
       <c r="G18">
-        <v>0.3306925776876994</v>
+        <v>0.3796155217886792</v>
       </c>
       <c r="H18">
-        <v>0.2472666388593012</v>
+        <v>0.5300020904905267</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.616915963959286</v>
+        <v>0.5355414373732401</v>
       </c>
       <c r="L18">
-        <v>0.3925431430616868</v>
+        <v>0.1537752273030577</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7321532470262326</v>
+        <v>1.588895857400363</v>
       </c>
       <c r="O18">
-        <v>1.16945116431998</v>
+        <v>1.760823704924292</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.325738729500472</v>
+        <v>1.019346615854147</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.08881567107744104</v>
+        <v>0.0323534184435843</v>
       </c>
       <c r="E19">
-        <v>0.1498970355302198</v>
+        <v>0.3677816251229835</v>
       </c>
       <c r="F19">
-        <v>0.4635105326003099</v>
+        <v>0.5433588638391598</v>
       </c>
       <c r="G19">
-        <v>0.3288239155518653</v>
+        <v>0.379382658173256</v>
       </c>
       <c r="H19">
-        <v>0.2467850300173637</v>
+        <v>0.5301368901615575</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.604574875851455</v>
+        <v>0.5315751609907124</v>
       </c>
       <c r="L19">
-        <v>0.3891003711071477</v>
+        <v>0.152804819742272</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.735044277491852</v>
+        <v>1.590148662781843</v>
       </c>
       <c r="O19">
-        <v>1.164456436777726</v>
+        <v>1.760594579208544</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.373166298991094</v>
+        <v>1.031103527504854</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.09198659799228182</v>
+        <v>0.03338201331012414</v>
       </c>
       <c r="E20">
-        <v>0.149141513134218</v>
+        <v>0.3667371735419529</v>
       </c>
       <c r="F20">
-        <v>0.4758381548055084</v>
+        <v>0.5451728959967852</v>
       </c>
       <c r="G20">
-        <v>0.337287662582284</v>
+        <v>0.380448140490472</v>
       </c>
       <c r="H20">
-        <v>0.2489846866434391</v>
+        <v>0.5295455488534344</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.660111316970045</v>
+        <v>0.5494122170988192</v>
       </c>
       <c r="L20">
-        <v>0.4046082847304717</v>
+        <v>0.1571741432676816</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.722116906028937</v>
+        <v>1.584547451683555</v>
       </c>
       <c r="O20">
-        <v>1.187116154016849</v>
+        <v>1.76169434744665</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.533874236117413</v>
+        <v>1.071092148846816</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1026413712050456</v>
+        <v>0.03682468290219276</v>
       </c>
       <c r="E21">
-        <v>0.14697451826855</v>
+        <v>0.3634170947326503</v>
       </c>
       <c r="F21">
-        <v>0.5183857153278026</v>
+        <v>0.5516531348638054</v>
       </c>
       <c r="G21">
-        <v>0.3667246562683459</v>
+        <v>0.3843355958919403</v>
       </c>
       <c r="H21">
-        <v>0.2569615136968793</v>
+        <v>0.5278257652593226</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.846745966461725</v>
+        <v>0.6091354686973887</v>
       </c>
       <c r="L21">
-        <v>0.4569985863201111</v>
+        <v>0.1718955583621948</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6801610458115412</v>
+        <v>1.566367797154538</v>
       </c>
       <c r="O21">
-        <v>1.266587779163444</v>
+        <v>1.766591043415985</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.64001020577183</v>
+        <v>1.09758679173558</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1096078665902525</v>
+        <v>0.03906458354920517</v>
       </c>
       <c r="E22">
-        <v>0.1458461409206038</v>
+        <v>0.3613880540074916</v>
       </c>
       <c r="F22">
-        <v>0.5470959941205535</v>
+        <v>0.5561752365463875</v>
       </c>
       <c r="G22">
-        <v>0.3867654191544858</v>
+        <v>0.3871056367822945</v>
       </c>
       <c r="H22">
-        <v>0.2626368134548045</v>
+        <v>0.5269005475208388</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.968798797705631</v>
+        <v>0.6480099219964472</v>
       </c>
       <c r="L22">
-        <v>0.4914798180935378</v>
+        <v>0.1815467597092919</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6538836858082604</v>
+        <v>1.554963057167946</v>
       </c>
       <c r="O22">
-        <v>1.321187661273797</v>
+        <v>1.770686620736598</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.583256324705133</v>
+        <v>1.083413389619665</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1058892904512305</v>
+        <v>0.03787004149145901</v>
       </c>
       <c r="E23">
-        <v>0.1464213084183257</v>
+        <v>0.3624581150872146</v>
       </c>
       <c r="F23">
-        <v>0.5316860544305726</v>
+        <v>0.5537354752168682</v>
       </c>
       <c r="G23">
-        <v>0.3759921503268231</v>
+        <v>0.3856062194965091</v>
       </c>
       <c r="H23">
-        <v>0.2595638705342367</v>
+        <v>0.527376184402911</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.903646813725146</v>
+        <v>0.6272766218785648</v>
       </c>
       <c r="L23">
-        <v>0.473052607251887</v>
+        <v>0.1763930416928332</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6678010669827792</v>
+        <v>1.561006363142965</v>
       </c>
       <c r="O23">
-        <v>1.291791798133488</v>
+        <v>1.768418832410958</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.37055692258096</v>
+        <v>1.030456053783837</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.09181246821180622</v>
+        <v>0.03332557721726914</v>
       </c>
       <c r="E24">
-        <v>0.1491816326998148</v>
+        <v>0.3667938179358501</v>
       </c>
       <c r="F24">
-        <v>0.4751570884775376</v>
+        <v>0.5450718275834774</v>
       </c>
       <c r="G24">
-        <v>0.3368192521075741</v>
+        <v>0.3803884724759001</v>
       </c>
       <c r="H24">
-        <v>0.2488617481394328</v>
+        <v>0.5295770171828593</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.657061485382741</v>
+        <v>0.5484334590381366</v>
       </c>
       <c r="L24">
-        <v>0.4037556581334485</v>
+        <v>0.1569340445048368</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7228213563554569</v>
+        <v>1.584852636984259</v>
       </c>
       <c r="O24">
-        <v>1.185859658847335</v>
+        <v>1.761629432165591</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.145281912156406</v>
+        <v>0.9748981431891934</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.07662637630324554</v>
+        <v>0.02838158418925474</v>
       </c>
       <c r="E25">
-        <v>0.1533249822641718</v>
+        <v>0.3720761118742963</v>
       </c>
       <c r="F25">
-        <v>0.4176651938591291</v>
+        <v>0.5369603321225824</v>
       </c>
       <c r="G25">
-        <v>0.2976485376644931</v>
+        <v>0.3757442028136992</v>
       </c>
       <c r="H25">
-        <v>0.239142611723338</v>
+        <v>0.5328060681943327</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.391111961249038</v>
+        <v>0.4627350178062386</v>
       </c>
       <c r="L25">
-        <v>0.3298647789208786</v>
+        <v>0.136077318696934</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7868153057738176</v>
+        <v>1.612621662311035</v>
       </c>
       <c r="O25">
-        <v>1.081922519917697</v>
+        <v>1.758151555094159</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_237/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_237/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9353491011476933</v>
+        <v>0.982347283089581</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02470569264311706</v>
+        <v>0.0654253931389448</v>
       </c>
       <c r="E2">
-        <v>0.3764878169001253</v>
+        <v>0.1573060852520793</v>
       </c>
       <c r="F2">
-        <v>0.5320487359019879</v>
+        <v>0.3779150702442635</v>
       </c>
       <c r="G2">
-        <v>0.3731684582329748</v>
+        <v>0.2710823531235391</v>
       </c>
       <c r="H2">
-        <v>0.5359209923621577</v>
+        <v>0.233390780572087</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3990874383953837</v>
+        <v>1.194980040629531</v>
       </c>
       <c r="L2">
-        <v>0.120836204172349</v>
+        <v>0.2760013013787557</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.634832354216272</v>
+        <v>0.8376676134168264</v>
       </c>
       <c r="O2">
-        <v>1.758896973849332</v>
+        <v>1.013130906839365</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9094003381312916</v>
+        <v>0.8734606925066259</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02219258204841168</v>
+        <v>0.05781398502428914</v>
       </c>
       <c r="E3">
-        <v>0.3798043307007166</v>
+        <v>0.1605506356372715</v>
       </c>
       <c r="F3">
-        <v>0.5293819867776861</v>
+        <v>0.3523935550446851</v>
       </c>
       <c r="G3">
-        <v>0.3719481265385625</v>
+        <v>0.2543228341425205</v>
       </c>
       <c r="H3">
-        <v>0.5384930335440714</v>
+        <v>0.2302923626912303</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3556188903764053</v>
+        <v>1.06170967747363</v>
       </c>
       <c r="L3">
-        <v>0.1105801642356283</v>
+        <v>0.2397461237839877</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.650987400577201</v>
+        <v>0.8743379794777191</v>
       </c>
       <c r="O3">
-        <v>1.76146428061783</v>
+        <v>0.9708062263424893</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8938917477824759</v>
+        <v>0.807271352807021</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02063884706763019</v>
+        <v>0.05312802012246465</v>
       </c>
       <c r="E4">
-        <v>0.3820020767812533</v>
+        <v>0.1628017743917987</v>
       </c>
       <c r="F4">
-        <v>0.5280712361764301</v>
+        <v>0.3373628966927882</v>
       </c>
       <c r="G4">
-        <v>0.3714576501076721</v>
+        <v>0.2445923243433157</v>
       </c>
       <c r="H4">
-        <v>0.5403000602223784</v>
+        <v>0.2287607237702503</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.32876758247005</v>
+        <v>0.9796633118411364</v>
       </c>
       <c r="L4">
-        <v>0.1043193871062016</v>
+        <v>0.2175806705559324</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.661451150759669</v>
+        <v>0.8979042829243511</v>
       </c>
       <c r="O4">
-        <v>1.764057927020474</v>
+        <v>0.9467736569235115</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.887679092868467</v>
+        <v>0.7804542546077471</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02000303558871508</v>
+        <v>0.05121498412279379</v>
       </c>
       <c r="E5">
-        <v>0.3829382973892432</v>
+        <v>0.1637827360916457</v>
       </c>
       <c r="F5">
-        <v>0.5276192975582177</v>
+        <v>0.3313902947060754</v>
       </c>
       <c r="G5">
-        <v>0.3713228427028952</v>
+        <v>0.2407602677928011</v>
       </c>
       <c r="H5">
-        <v>0.5410937801045179</v>
+        <v>0.2282264838858765</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3177855593612406</v>
+        <v>0.9461682616967408</v>
       </c>
       <c r="L5">
-        <v>0.1017773643608848</v>
+        <v>0.2085683589979794</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.665852188541139</v>
+        <v>0.9077663689824575</v>
       </c>
       <c r="O5">
-        <v>1.765370766779483</v>
+        <v>0.9374487189985814</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.886653979508651</v>
+        <v>0.7760103461294534</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01989730036356718</v>
+        <v>0.05089710756528376</v>
       </c>
       <c r="E6">
-        <v>0.3830962106363387</v>
+        <v>0.1639494223168132</v>
       </c>
       <c r="F6">
-        <v>0.527549220270437</v>
+        <v>0.330407523065098</v>
       </c>
       <c r="G6">
-        <v>0.3713043874124509</v>
+        <v>0.2401317872313911</v>
       </c>
       <c r="H6">
-        <v>0.5412290418746792</v>
+        <v>0.2281431098955551</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3159596136803913</v>
+        <v>0.9406026205900417</v>
       </c>
       <c r="L6">
-        <v>0.1013558284303571</v>
+        <v>0.2070729924525097</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.666591252217977</v>
+        <v>0.9094194235633317</v>
       </c>
       <c r="O6">
-        <v>1.765604221876018</v>
+        <v>0.9359279624741959</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.893807526828283</v>
+        <v>0.8069090738221121</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0206302829863958</v>
+        <v>0.05310223469722786</v>
       </c>
       <c r="E7">
-        <v>0.382014538455504</v>
+        <v>0.1628147484137745</v>
       </c>
       <c r="F7">
-        <v>0.528064808251159</v>
+        <v>0.337281741332859</v>
       </c>
       <c r="G7">
-        <v>0.3714555686188703</v>
+        <v>0.2445401143388466</v>
       </c>
       <c r="H7">
-        <v>0.5403105323468083</v>
+        <v>0.2287531590503349</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3286196356812923</v>
+        <v>0.9792118381007526</v>
       </c>
       <c r="L7">
-        <v>0.1042850667005695</v>
+        <v>0.2174590499676725</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.661509950009377</v>
+        <v>0.8980362464474023</v>
       </c>
       <c r="O7">
-        <v>1.764074596147751</v>
+        <v>0.9466460302526229</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9263142987080357</v>
+        <v>0.9446570792434557</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02384140648194943</v>
+        <v>0.06280338302153865</v>
       </c>
       <c r="E8">
-        <v>0.377597876385126</v>
+        <v>0.1583701268982445</v>
       </c>
       <c r="F8">
-        <v>0.5310614829185667</v>
+        <v>0.3689773603542648</v>
       </c>
       <c r="G8">
-        <v>0.3726939611065205</v>
+        <v>0.265182792246101</v>
       </c>
       <c r="H8">
-        <v>0.536760593713943</v>
+        <v>0.2322434383458614</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3841333976056944</v>
+        <v>1.149070038288073</v>
       </c>
       <c r="L8">
-        <v>0.1172924225106584</v>
+        <v>0.2634784353043926</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.640289642737628</v>
+        <v>0.8500901125221336</v>
       </c>
       <c r="O8">
-        <v>1.759571092704419</v>
+        <v>0.9981174083698505</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9934028348092454</v>
+        <v>1.220669348348054</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03005255372126925</v>
+        <v>0.08174372877729041</v>
       </c>
       <c r="E9">
-        <v>0.3702157228014258</v>
+        <v>0.1517800886816367</v>
       </c>
       <c r="F9">
-        <v>0.5395279157590522</v>
+        <v>0.4366038148323597</v>
       </c>
       <c r="G9">
-        <v>0.3771774047130521</v>
+        <v>0.3104656224750642</v>
       </c>
       <c r="H9">
-        <v>0.5316039469785352</v>
+        <v>0.2421877624698254</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4916888422650061</v>
+        <v>1.480724683997522</v>
       </c>
       <c r="L9">
-        <v>0.1430850901701319</v>
+        <v>0.3546583635698113</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.602993787077679</v>
+        <v>0.7646619337093945</v>
       </c>
       <c r="O9">
-        <v>1.758809453234903</v>
+        <v>1.115658455826576</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.044707327267048</v>
+        <v>1.427930050187939</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03456238738617401</v>
+        <v>0.09563253566723517</v>
       </c>
       <c r="E10">
-        <v>0.3655694244574512</v>
+        <v>0.1483371083278442</v>
       </c>
       <c r="F10">
-        <v>0.547326260296785</v>
+        <v>0.4902057678904725</v>
       </c>
       <c r="G10">
-        <v>0.3817271525695247</v>
+        <v>0.347190433752715</v>
       </c>
       <c r="H10">
-        <v>0.5289124567204198</v>
+        <v>0.2516147925642116</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5698854342697359</v>
+        <v>1.723971037816057</v>
       </c>
       <c r="L10">
-        <v>0.1622052788071784</v>
+        <v>0.422487417498786</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.578219280560994</v>
+        <v>0.7075090180297963</v>
       </c>
       <c r="O10">
-        <v>1.763169548732321</v>
+        <v>1.213742841808823</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.068479906441723</v>
+        <v>1.523398194256572</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03660218636001389</v>
+        <v>0.1019508320013784</v>
       </c>
       <c r="E11">
-        <v>0.3636240204632024</v>
+        <v>0.1470983914059651</v>
       </c>
       <c r="F11">
-        <v>0.5512164966591513</v>
+        <v>0.5155773787420301</v>
       </c>
       <c r="G11">
-        <v>0.3840703282563425</v>
+        <v>0.3647716420133804</v>
       </c>
       <c r="H11">
-        <v>0.5279256145779101</v>
+        <v>0.256418231937829</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.605274619536317</v>
+        <v>1.834648850973224</v>
       </c>
       <c r="L11">
-        <v>0.1709398732498499</v>
+        <v>0.4535903111851383</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.56751802790691</v>
+        <v>0.6828139735563994</v>
       </c>
       <c r="O11">
-        <v>1.76622155595868</v>
+        <v>1.261286728501631</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.077543838690104</v>
+        <v>1.559737785731386</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03737288712032694</v>
+        <v>0.1043439073425674</v>
       </c>
       <c r="E12">
-        <v>0.3629115003452164</v>
+        <v>0.1466785231429952</v>
       </c>
       <c r="F12">
-        <v>0.55273886948887</v>
+        <v>0.5253389446704091</v>
       </c>
       <c r="G12">
-        <v>0.3849969866631966</v>
+        <v>0.3715659094430634</v>
       </c>
       <c r="H12">
-        <v>0.5275860229429981</v>
+        <v>0.2583160316544735</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6186486662097934</v>
+        <v>1.87657243608507</v>
       </c>
       <c r="L12">
-        <v>0.174252616442601</v>
+        <v>0.4654092023813519</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.56354748253607</v>
+        <v>0.6736579433386325</v>
       </c>
       <c r="O12">
-        <v>1.76753089037885</v>
+        <v>1.279744143400109</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.075589021291904</v>
+        <v>1.551902756967081</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03720698032449832</v>
+        <v>0.1038284873467745</v>
       </c>
       <c r="E13">
-        <v>0.3630638801241624</v>
+        <v>0.1467667259507586</v>
       </c>
       <c r="F13">
-        <v>0.5524088109382745</v>
+        <v>0.5232295764418495</v>
       </c>
       <c r="G13">
-        <v>0.3847956637909817</v>
+        <v>0.3700963854313244</v>
       </c>
       <c r="H13">
-        <v>0.527657644126009</v>
+        <v>0.2579037207638919</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6157695422862446</v>
+        <v>1.867542746394975</v>
       </c>
       <c r="L13">
-        <v>0.1735389314612092</v>
+        <v>0.4628618844996168</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.564398973092576</v>
+        <v>0.6756210347715275</v>
       </c>
       <c r="O13">
-        <v>1.767242071033991</v>
+        <v>1.275748288900445</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.069224367162832</v>
+        <v>1.526384004379196</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03666562720027144</v>
+        <v>0.1021476996253625</v>
       </c>
       <c r="E14">
-        <v>0.3635649169172446</v>
+        <v>0.1470628499099469</v>
       </c>
       <c r="F14">
-        <v>0.5513407569961402</v>
+        <v>0.5163773141541839</v>
       </c>
       <c r="G14">
-        <v>0.3841457762649867</v>
+        <v>0.3653278074876738</v>
       </c>
       <c r="H14">
-        <v>0.5278969929737656</v>
+        <v>0.2565727565324494</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6063754573790163</v>
+        <v>1.838097629830145</v>
       </c>
       <c r="L14">
-        <v>0.171212312374891</v>
+        <v>0.454561806807817</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.567189729642013</v>
+        <v>0.6820567374178133</v>
       </c>
       <c r="O14">
-        <v>1.766326197527775</v>
+        <v>1.262795944596576</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.065333858820168</v>
+        <v>1.510778039164649</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03633380677396758</v>
+        <v>0.1011182438986253</v>
       </c>
       <c r="E15">
-        <v>0.3638749622239175</v>
+        <v>0.1472507071904552</v>
       </c>
       <c r="F15">
-        <v>0.5506929518452353</v>
+        <v>0.5122005098739706</v>
       </c>
       <c r="G15">
-        <v>0.3837528264242707</v>
+        <v>0.3624250439040964</v>
       </c>
       <c r="H15">
-        <v>0.5280480408532924</v>
+        <v>0.2557679168807567</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6006177607566201</v>
+        <v>1.820063522269407</v>
       </c>
       <c r="L15">
-        <v>0.1697878564842341</v>
+        <v>0.4494832611216424</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.568909799548859</v>
+        <v>0.6860244868368177</v>
       </c>
       <c r="O15">
-        <v>1.765785200868635</v>
+        <v>1.254922342415512</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.043162411419758</v>
+        <v>1.421716291083129</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03442884213365716</v>
+        <v>0.09521966168826879</v>
       </c>
       <c r="E16">
-        <v>0.3656999438357929</v>
+        <v>0.1484248296610922</v>
       </c>
       <c r="F16">
-        <v>0.5470789157595704</v>
+        <v>0.488568547051095</v>
       </c>
       <c r="G16">
-        <v>0.3815795255385552</v>
+        <v>0.3460599771563295</v>
       </c>
       <c r="H16">
-        <v>0.5289817244034367</v>
+        <v>0.2513116423295116</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5675689221291975</v>
+        <v>1.716739205221359</v>
       </c>
       <c r="L16">
-        <v>0.1616351796360789</v>
+        <v>0.4204601937362753</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.578930077688334</v>
+        <v>0.7091498058990702</v>
       </c>
       <c r="O16">
-        <v>1.762991590782462</v>
+        <v>1.21069736658842</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02967163793025</v>
+        <v>1.367395279200935</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03325717261780881</v>
+        <v>0.09160143370869633</v>
       </c>
       <c r="E17">
-        <v>0.3668625764690816</v>
+        <v>0.1492304661652923</v>
       </c>
       <c r="F17">
-        <v>0.5449495612508528</v>
+        <v>0.4743323121066609</v>
       </c>
       <c r="G17">
-        <v>0.3803163358790584</v>
+        <v>0.3362521286936015</v>
       </c>
       <c r="H17">
-        <v>0.529615308859789</v>
+        <v>0.2487130854158011</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.547247147566992</v>
+        <v>1.653365290850672</v>
       </c>
       <c r="L17">
-        <v>0.156643083753977</v>
+        <v>0.4027224851523385</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.58522287121211</v>
+        <v>0.7236759466910279</v>
       </c>
       <c r="O17">
-        <v>1.761551451768014</v>
+        <v>1.184338741873773</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.021952980644954</v>
+        <v>1.336261618316485</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03258215588166991</v>
+        <v>0.08952031624730949</v>
       </c>
       <c r="E18">
-        <v>0.3675471273669899</v>
+        <v>0.149724541029677</v>
       </c>
       <c r="F18">
-        <v>0.5437570758933958</v>
+        <v>0.4662362345217019</v>
       </c>
       <c r="G18">
-        <v>0.3796155217886792</v>
+        <v>0.3306925776877421</v>
       </c>
       <c r="H18">
-        <v>0.5300020904905267</v>
+        <v>0.2472666388594007</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5355414373732401</v>
+        <v>1.616915963959485</v>
       </c>
       <c r="L18">
-        <v>0.1537752273030577</v>
+        <v>0.3925431430618715</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.588895857400363</v>
+        <v>0.7321532470262326</v>
       </c>
       <c r="O18">
-        <v>1.760823704924292</v>
+        <v>1.169451164320037</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.019346615854147</v>
+        <v>1.3257387295005</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.0323534184435843</v>
+        <v>0.08881567107713551</v>
       </c>
       <c r="E19">
-        <v>0.3677816251229835</v>
+        <v>0.1498970355302554</v>
       </c>
       <c r="F19">
-        <v>0.5433588638391598</v>
+        <v>0.4635105326003313</v>
       </c>
       <c r="G19">
-        <v>0.379382658173256</v>
+        <v>0.3288239155518085</v>
       </c>
       <c r="H19">
-        <v>0.5301368901615575</v>
+        <v>0.2467850300173637</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5315751609907124</v>
+        <v>1.604574875851313</v>
       </c>
       <c r="L19">
-        <v>0.152804819742272</v>
+        <v>0.3891003711071761</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.590148662781843</v>
+        <v>0.7350442774918484</v>
       </c>
       <c r="O19">
-        <v>1.760594579208544</v>
+        <v>1.16445643677767</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.031103527504854</v>
+        <v>1.373166298991094</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03338201331012414</v>
+        <v>0.09198659799221787</v>
       </c>
       <c r="E20">
-        <v>0.3667371735419529</v>
+        <v>0.1491415131342144</v>
       </c>
       <c r="F20">
-        <v>0.5451728959967852</v>
+        <v>0.4758381548055084</v>
       </c>
       <c r="G20">
-        <v>0.380448140490472</v>
+        <v>0.337287662582284</v>
       </c>
       <c r="H20">
-        <v>0.5295455488534344</v>
+        <v>0.2489846866434391</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5494122170988192</v>
+        <v>1.660111316969932</v>
       </c>
       <c r="L20">
-        <v>0.1571741432676816</v>
+        <v>0.4046082847304575</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.584547451683555</v>
+        <v>0.7221169060288766</v>
       </c>
       <c r="O20">
-        <v>1.76169434744665</v>
+        <v>1.187116154016849</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.071092148846816</v>
+        <v>1.533874236117526</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03682468290219276</v>
+        <v>0.1026413712048182</v>
       </c>
       <c r="E21">
-        <v>0.3634170947326503</v>
+        <v>0.1469745182685713</v>
       </c>
       <c r="F21">
-        <v>0.5516531348638054</v>
+        <v>0.5183857153277671</v>
       </c>
       <c r="G21">
-        <v>0.3843355958919403</v>
+        <v>0.3667246562683175</v>
       </c>
       <c r="H21">
-        <v>0.5278257652593226</v>
+        <v>0.2569615136968793</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6091354686973887</v>
+        <v>1.846745966461782</v>
       </c>
       <c r="L21">
-        <v>0.1718955583621948</v>
+        <v>0.4569985863200685</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.566367797154538</v>
+        <v>0.6801610458114915</v>
       </c>
       <c r="O21">
-        <v>1.766591043415985</v>
+        <v>1.266587779163387</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.09758679173558</v>
+        <v>1.640010205771887</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.03906458354920517</v>
+        <v>0.1096078665901814</v>
       </c>
       <c r="E22">
-        <v>0.3613880540074916</v>
+        <v>0.1458461409206073</v>
       </c>
       <c r="F22">
-        <v>0.5561752365463875</v>
+        <v>0.5470959941205606</v>
       </c>
       <c r="G22">
-        <v>0.3871056367822945</v>
+        <v>0.3867654191545142</v>
       </c>
       <c r="H22">
-        <v>0.5269005475208388</v>
+        <v>0.2626368134548045</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6480099219964472</v>
+        <v>1.968798797705517</v>
       </c>
       <c r="L22">
-        <v>0.1815467597092919</v>
+        <v>0.4914798180934383</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.554963057167946</v>
+        <v>0.6538836858083172</v>
       </c>
       <c r="O22">
-        <v>1.770686620736598</v>
+        <v>1.321187661273797</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.083413389619665</v>
+        <v>1.583256324704962</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03787004149145901</v>
+        <v>0.1058892904512874</v>
       </c>
       <c r="E23">
-        <v>0.3624581150872146</v>
+        <v>0.1464213084183399</v>
       </c>
       <c r="F23">
-        <v>0.5537354752168682</v>
+        <v>0.5316860544305655</v>
       </c>
       <c r="G23">
-        <v>0.3856062194965091</v>
+        <v>0.3759921503267663</v>
       </c>
       <c r="H23">
-        <v>0.527376184402911</v>
+        <v>0.2595638705342509</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6272766218785648</v>
+        <v>1.903646813725203</v>
       </c>
       <c r="L23">
-        <v>0.1763930416928332</v>
+        <v>0.4730526072519439</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.561006363142965</v>
+        <v>0.6678010669827685</v>
       </c>
       <c r="O23">
-        <v>1.768418832410958</v>
+        <v>1.291791798133517</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.030456053783837</v>
+        <v>1.370556922580988</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03332557721726914</v>
+        <v>0.09181246821198386</v>
       </c>
       <c r="E24">
-        <v>0.3667938179358501</v>
+        <v>0.1491816326998006</v>
       </c>
       <c r="F24">
-        <v>0.5450718275834774</v>
+        <v>0.4751570884775518</v>
       </c>
       <c r="G24">
-        <v>0.3803884724759001</v>
+        <v>0.3368192521075883</v>
       </c>
       <c r="H24">
-        <v>0.5295770171828593</v>
+        <v>0.2488617481394328</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5484334590381366</v>
+        <v>1.65706148538294</v>
       </c>
       <c r="L24">
-        <v>0.1569340445048368</v>
+        <v>0.4037556581334201</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.584852636984259</v>
+        <v>0.7228213563554462</v>
       </c>
       <c r="O24">
-        <v>1.761629432165591</v>
+        <v>1.185859658847335</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9748981431891934</v>
+        <v>1.145281912156406</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02838158418925474</v>
+        <v>0.07662637630335922</v>
       </c>
       <c r="E25">
-        <v>0.3720761118742963</v>
+        <v>0.1533249822641629</v>
       </c>
       <c r="F25">
-        <v>0.5369603321225824</v>
+        <v>0.4176651938591291</v>
       </c>
       <c r="G25">
-        <v>0.3757442028136992</v>
+        <v>0.2976485376645002</v>
       </c>
       <c r="H25">
-        <v>0.5328060681943327</v>
+        <v>0.2391426117233308</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4627350178062386</v>
+        <v>1.391111961248981</v>
       </c>
       <c r="L25">
-        <v>0.136077318696934</v>
+        <v>0.3298647789207934</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.612621662311035</v>
+        <v>0.786815305773807</v>
       </c>
       <c r="O25">
-        <v>1.758151555094159</v>
+        <v>1.081922519917669</v>
       </c>
     </row>
   </sheetData>
